--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Comp-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Comp-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Comp</t>
+  </si>
+  <si>
+    <t>Itgb3</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Comp</t>
-  </si>
-  <si>
-    <t>Itgb3</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.820229</v>
+        <v>0.417308</v>
       </c>
       <c r="H2">
-        <v>1.640458</v>
+        <v>0.834616</v>
       </c>
       <c r="I2">
-        <v>0.06307660610589233</v>
+        <v>0.0365030588402487</v>
       </c>
       <c r="J2">
-        <v>0.04362238496983823</v>
+        <v>0.02503460188982125</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N2">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O2">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P2">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q2">
-        <v>4.5530751845345</v>
+        <v>3.606130150242</v>
       </c>
       <c r="R2">
-        <v>18.212300738138</v>
+        <v>14.424520600968</v>
       </c>
       <c r="S2">
-        <v>0.02893903372220122</v>
+        <v>0.01184843492319446</v>
       </c>
       <c r="T2">
-        <v>0.01607100614177299</v>
+        <v>0.006145210827310182</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.820229</v>
+        <v>0.417308</v>
       </c>
       <c r="H3">
-        <v>1.640458</v>
+        <v>0.834616</v>
       </c>
       <c r="I3">
-        <v>0.06307660610589233</v>
+        <v>0.0365030588402487</v>
       </c>
       <c r="J3">
-        <v>0.04362238496983823</v>
+        <v>0.02503460188982125</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.981621</v>
       </c>
       <c r="O3">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P3">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q3">
-        <v>1.088613670403</v>
+        <v>0.5538540987559999</v>
       </c>
       <c r="R3">
-        <v>6.531682022417999</v>
+        <v>3.323124592536</v>
       </c>
       <c r="S3">
-        <v>0.006919153855673156</v>
+        <v>0.001819763561671395</v>
       </c>
       <c r="T3">
-        <v>0.005763725484642965</v>
+        <v>0.001415735177027827</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.820229</v>
+        <v>0.417308</v>
       </c>
       <c r="H4">
-        <v>1.640458</v>
+        <v>0.834616</v>
       </c>
       <c r="I4">
-        <v>0.06307660610589233</v>
+        <v>0.0365030588402487</v>
       </c>
       <c r="J4">
-        <v>0.04362238496983823</v>
+        <v>0.02503460188982125</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N4">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O4">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P4">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q4">
-        <v>0.205290195036</v>
+        <v>0.2337731595466667</v>
       </c>
       <c r="R4">
-        <v>1.231741170216</v>
+        <v>1.40263895728</v>
       </c>
       <c r="S4">
-        <v>0.001304810405319819</v>
+        <v>0.0007680937604241369</v>
       </c>
       <c r="T4">
-        <v>0.001086920329080829</v>
+        <v>0.0005975596933533917</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.820229</v>
+        <v>0.417308</v>
       </c>
       <c r="H5">
-        <v>1.640458</v>
+        <v>0.834616</v>
       </c>
       <c r="I5">
-        <v>0.06307660610589233</v>
+        <v>0.0365030588402487</v>
       </c>
       <c r="J5">
-        <v>0.04362238496983823</v>
+        <v>0.02503460188982125</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N5">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O5">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P5">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q5">
-        <v>0.501779191895</v>
+        <v>0.341942801162</v>
       </c>
       <c r="R5">
-        <v>2.00711676758</v>
+        <v>1.367771204648</v>
       </c>
       <c r="S5">
-        <v>0.00318927414259971</v>
+        <v>0.001123499945433443</v>
       </c>
       <c r="T5">
-        <v>0.001771131849996651</v>
+        <v>0.0005827051483098801</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.820229</v>
+        <v>0.417308</v>
       </c>
       <c r="H6">
-        <v>1.640458</v>
+        <v>0.834616</v>
       </c>
       <c r="I6">
-        <v>0.06307660610589233</v>
+        <v>0.0365030588402487</v>
       </c>
       <c r="J6">
-        <v>0.04362238496983823</v>
+        <v>0.02503460188982125</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N6">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O6">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P6">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q6">
-        <v>3.282457483700667</v>
+        <v>6.306895293190667</v>
       </c>
       <c r="R6">
-        <v>19.694744902204</v>
+        <v>37.841371759144</v>
       </c>
       <c r="S6">
-        <v>0.02086307472698084</v>
+        <v>0.02072216901094274</v>
       </c>
       <c r="T6">
-        <v>0.01737915328957679</v>
+        <v>0.01612138204710637</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.820229</v>
+        <v>0.417308</v>
       </c>
       <c r="H7">
-        <v>1.640458</v>
+        <v>0.834616</v>
       </c>
       <c r="I7">
-        <v>0.06307660610589233</v>
+        <v>0.0365030588402487</v>
       </c>
       <c r="J7">
-        <v>0.04362238496983823</v>
+        <v>0.02503460188982125</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N7">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O7">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P7">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q7">
-        <v>0.29283815758</v>
+        <v>0.067292166924</v>
       </c>
       <c r="R7">
-        <v>1.75702894548</v>
+        <v>0.4037530015440001</v>
       </c>
       <c r="S7">
-        <v>0.001861259253117585</v>
+        <v>0.0002210976385825251</v>
       </c>
       <c r="T7">
-        <v>0.001550447874768014</v>
+        <v>0.0001720089967136009</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>31.229245</v>
       </c>
       <c r="I8">
-        <v>0.8005222874138025</v>
+        <v>0.9105688266792094</v>
       </c>
       <c r="J8">
-        <v>0.8304352490020444</v>
+        <v>0.9367322408085764</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N8">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O8">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P8">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q8">
-        <v>57.78431000824084</v>
+        <v>89.9549189597725</v>
       </c>
       <c r="R8">
-        <v>346.705860049445</v>
+        <v>539.729513758635</v>
       </c>
       <c r="S8">
-        <v>0.3672731128233228</v>
+        <v>0.2955592169197139</v>
       </c>
       <c r="T8">
-        <v>0.3059422357646056</v>
+        <v>0.2299384321684731</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>31.229245</v>
       </c>
       <c r="I9">
-        <v>0.8005222874138025</v>
+        <v>0.9105688266792094</v>
       </c>
       <c r="J9">
-        <v>0.8304352490020444</v>
+        <v>0.9367322408085764</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>3.981621</v>
       </c>
       <c r="O9">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P9">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q9">
         <v>13.81589085623833</v>
@@ -1013,10 +1013,10 @@
         <v>124.343017706145</v>
       </c>
       <c r="S9">
-        <v>0.08781285508945738</v>
+        <v>0.04539400323782321</v>
       </c>
       <c r="T9">
-        <v>0.109723501164101</v>
+        <v>0.05297327237738117</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>31.229245</v>
       </c>
       <c r="I10">
-        <v>0.8005222874138025</v>
+        <v>0.9105688266792094</v>
       </c>
       <c r="J10">
-        <v>0.8304352490020444</v>
+        <v>0.9367322408085764</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N10">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O10">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P10">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q10">
-        <v>2.60539345186</v>
+        <v>5.83147161801111</v>
       </c>
       <c r="R10">
-        <v>23.44854106674</v>
+        <v>52.4832445621</v>
       </c>
       <c r="S10">
-        <v>0.01655970215890193</v>
+        <v>0.01916009935687524</v>
       </c>
       <c r="T10">
-        <v>0.02069160030451608</v>
+        <v>0.02235919041314562</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>31.229245</v>
       </c>
       <c r="I11">
-        <v>0.8005222874138025</v>
+        <v>0.9105688266792094</v>
       </c>
       <c r="J11">
-        <v>0.8304352490020444</v>
+        <v>0.9367322408085764</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N11">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O11">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P11">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q11">
-        <v>6.368215591658333</v>
+        <v>8.529763398955833</v>
       </c>
       <c r="R11">
-        <v>38.20929354995</v>
+        <v>51.178580393735</v>
       </c>
       <c r="S11">
-        <v>0.04047594170709694</v>
+        <v>0.02802570687472052</v>
       </c>
       <c r="T11">
-        <v>0.03371687081952032</v>
+        <v>0.02180337045938561</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>31.229245</v>
       </c>
       <c r="I12">
-        <v>0.8005222874138025</v>
+        <v>0.9105688266792094</v>
       </c>
       <c r="J12">
-        <v>0.8304352490020444</v>
+        <v>0.9367322408085764</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N12">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O12">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P12">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q12">
-        <v>41.65855672036778</v>
+        <v>157.3255072196061</v>
       </c>
       <c r="R12">
-        <v>374.92701048331</v>
+        <v>1415.929564976455</v>
       </c>
       <c r="S12">
-        <v>0.2647789304784366</v>
+        <v>0.5169145195508182</v>
       </c>
       <c r="T12">
-        <v>0.3308453102564951</v>
+        <v>0.603221828586663</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>31.229245</v>
       </c>
       <c r="I13">
-        <v>0.8005222874138025</v>
+        <v>0.9105688266792094</v>
       </c>
       <c r="J13">
-        <v>0.8304352490020444</v>
+        <v>0.9367322408085764</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N13">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O13">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P13">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q13">
-        <v>3.716488349966667</v>
+        <v>1.678603147995</v>
       </c>
       <c r="R13">
-        <v>33.4483951497</v>
+        <v>15.107428331955</v>
       </c>
       <c r="S13">
-        <v>0.02362174515658679</v>
+        <v>0.005515280739258238</v>
       </c>
       <c r="T13">
-        <v>0.0295157306928063</v>
+        <v>0.006436146803527895</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1017343333333333</v>
+        <v>0.03891033333333333</v>
       </c>
       <c r="H14">
-        <v>0.305203</v>
+        <v>0.116731</v>
       </c>
       <c r="I14">
-        <v>0.007823493769559743</v>
+        <v>0.003403592040316402</v>
       </c>
       <c r="J14">
-        <v>0.008115832749116123</v>
+        <v>0.003501387600046877</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N14">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O14">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P14">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q14">
-        <v>0.5647253005138334</v>
+        <v>0.3362402019355</v>
       </c>
       <c r="R14">
-        <v>3.388351803083</v>
+        <v>2.017441211613</v>
       </c>
       <c r="S14">
-        <v>0.003589355293508267</v>
+        <v>0.001104763273984213</v>
       </c>
       <c r="T14">
-        <v>0.002989969439929301</v>
+        <v>0.0008594810129242008</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1017343333333333</v>
+        <v>0.03891033333333333</v>
       </c>
       <c r="H15">
-        <v>0.305203</v>
+        <v>0.116731</v>
       </c>
       <c r="I15">
-        <v>0.007823493769559743</v>
+        <v>0.003403592040316402</v>
       </c>
       <c r="J15">
-        <v>0.008115832749116123</v>
+        <v>0.003501387600046877</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>3.981621</v>
       </c>
       <c r="O15">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P15">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q15">
-        <v>0.1350225193403333</v>
+        <v>0.05164206677233332</v>
       </c>
       <c r="R15">
-        <v>1.215202674063</v>
+        <v>0.464778600951</v>
       </c>
       <c r="S15">
-        <v>0.0008581938760244656</v>
+        <v>0.0001696770892781539</v>
       </c>
       <c r="T15">
-        <v>0.001072326331481505</v>
+        <v>0.0001980074464779434</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1017343333333333</v>
+        <v>0.03891033333333333</v>
       </c>
       <c r="H16">
-        <v>0.305203</v>
+        <v>0.116731</v>
       </c>
       <c r="I16">
-        <v>0.007823493769559743</v>
+        <v>0.003403592040316402</v>
       </c>
       <c r="J16">
-        <v>0.008115832749116123</v>
+        <v>0.003501387600046877</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N16">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O16">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P16">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q16">
-        <v>0.025462475884</v>
+        <v>0.02179730933111111</v>
       </c>
       <c r="R16">
-        <v>0.229162282956</v>
+        <v>0.19617578398</v>
       </c>
       <c r="S16">
-        <v>0.000161837751056849</v>
+        <v>7.161804769943696E-05</v>
       </c>
       <c r="T16">
-        <v>0.0002022187372041566</v>
+        <v>8.357584873143429E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1017343333333333</v>
+        <v>0.03891033333333333</v>
       </c>
       <c r="H17">
-        <v>0.305203</v>
+        <v>0.116731</v>
       </c>
       <c r="I17">
-        <v>0.007823493769559743</v>
+        <v>0.003403592040316402</v>
       </c>
       <c r="J17">
-        <v>0.008115832749116123</v>
+        <v>0.003501387600046877</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N17">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O17">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P17">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q17">
-        <v>0.06223648708833333</v>
+        <v>0.03188318549883333</v>
       </c>
       <c r="R17">
-        <v>0.37341892253</v>
+        <v>0.191299112993</v>
       </c>
       <c r="S17">
-        <v>0.0003955708451110844</v>
+        <v>0.0001047565763819459</v>
       </c>
       <c r="T17">
-        <v>0.0003295145343645054</v>
+        <v>8.149826347369403E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1017343333333333</v>
+        <v>0.03891033333333333</v>
       </c>
       <c r="H18">
-        <v>0.305203</v>
+        <v>0.116731</v>
       </c>
       <c r="I18">
-        <v>0.007823493769559743</v>
+        <v>0.003403592040316402</v>
       </c>
       <c r="J18">
-        <v>0.008115832749116123</v>
+        <v>0.003501387600046877</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N18">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O18">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P18">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q18">
-        <v>0.4071285260571111</v>
+        <v>0.5880630089921112</v>
       </c>
       <c r="R18">
-        <v>3.664156734514</v>
+        <v>5.292567080929</v>
       </c>
       <c r="S18">
-        <v>0.002587680999614633</v>
+        <v>0.001932161625479148</v>
       </c>
       <c r="T18">
-        <v>0.003233346858888618</v>
+        <v>0.002254767519123493</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1017343333333333</v>
+        <v>0.03891033333333333</v>
       </c>
       <c r="H19">
-        <v>0.305203</v>
+        <v>0.116731</v>
       </c>
       <c r="I19">
-        <v>0.007823493769559743</v>
+        <v>0.003403592040316402</v>
       </c>
       <c r="J19">
-        <v>0.008115832749116123</v>
+        <v>0.003501387600046877</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N19">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O19">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P19">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q19">
-        <v>0.03632119168666667</v>
+        <v>0.006274407981</v>
       </c>
       <c r="R19">
-        <v>0.3268907251800001</v>
+        <v>0.05646967182900001</v>
       </c>
       <c r="S19">
-        <v>0.0002308550042444433</v>
+        <v>2.061542749350339E-05</v>
       </c>
       <c r="T19">
-        <v>0.0002884568472480382</v>
+        <v>2.405750931611106E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.5849825</v>
+        <v>0.5406085</v>
       </c>
       <c r="H20">
-        <v>1.169965</v>
+        <v>1.081217</v>
       </c>
       <c r="I20">
-        <v>0.04498586459554607</v>
+        <v>0.0472884868850791</v>
       </c>
       <c r="J20">
-        <v>0.0311112284686574</v>
+        <v>0.03243148603849778</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N20">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O20">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P20">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q20">
-        <v>3.24722645034125</v>
+        <v>4.67162050889775</v>
       </c>
       <c r="R20">
-        <v>12.988905801365</v>
+        <v>18.686482035591</v>
       </c>
       <c r="S20">
-        <v>0.02063914869432509</v>
+        <v>0.01534924954991463</v>
       </c>
       <c r="T20">
-        <v>0.01146174708566719</v>
+        <v>0.007960914258858965</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.5849825</v>
+        <v>0.5406085</v>
       </c>
       <c r="H21">
-        <v>1.169965</v>
+        <v>1.081217</v>
       </c>
       <c r="I21">
-        <v>0.04498586459554607</v>
+        <v>0.0472884868850791</v>
       </c>
       <c r="J21">
-        <v>0.0311112284686574</v>
+        <v>0.03243148603849778</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>3.981621</v>
       </c>
       <c r="O21">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P21">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q21">
-        <v>0.7763928688774998</v>
+        <v>0.7174993854595</v>
       </c>
       <c r="R21">
-        <v>4.658357213264999</v>
+        <v>4.304996312757</v>
       </c>
       <c r="S21">
-        <v>0.004934699846477413</v>
+        <v>0.002357442583007827</v>
       </c>
       <c r="T21">
-        <v>0.004110655125971104</v>
+        <v>0.001834037378747227</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.5849825</v>
+        <v>0.5406085</v>
       </c>
       <c r="H22">
-        <v>1.169965</v>
+        <v>1.081217</v>
       </c>
       <c r="I22">
-        <v>0.04498586459554607</v>
+        <v>0.0472884868850791</v>
       </c>
       <c r="J22">
-        <v>0.0311112284686574</v>
+        <v>0.03243148603849778</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N22">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O22">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P22">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q22">
-        <v>0.14641176003</v>
+        <v>0.3028452776433334</v>
       </c>
       <c r="R22">
-        <v>0.8784705601799999</v>
+        <v>1.81707166586</v>
       </c>
       <c r="S22">
-        <v>0.0009305831090219936</v>
+        <v>0.0009950396725733799</v>
       </c>
       <c r="T22">
-        <v>0.0007751851878030722</v>
+        <v>0.0007741185155430452</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.5849825</v>
+        <v>0.5406085</v>
       </c>
       <c r="H23">
-        <v>1.169965</v>
+        <v>1.081217</v>
       </c>
       <c r="I23">
-        <v>0.04498586459554607</v>
+        <v>0.0472884868850791</v>
       </c>
       <c r="J23">
-        <v>0.0311112284686574</v>
+        <v>0.03243148603849778</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N23">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O23">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P23">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q23">
-        <v>0.3578659692875</v>
+        <v>0.44297541581275</v>
       </c>
       <c r="R23">
-        <v>1.43146387715</v>
+        <v>1.771901663251</v>
       </c>
       <c r="S23">
-        <v>0.002274571566139864</v>
+        <v>0.00145545645003416</v>
       </c>
       <c r="T23">
-        <v>0.001263160821478716</v>
+        <v>0.0007548749512831815</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.5849825</v>
+        <v>0.5406085</v>
       </c>
       <c r="H24">
-        <v>1.169965</v>
+        <v>1.081217</v>
       </c>
       <c r="I24">
-        <v>0.04498586459554607</v>
+        <v>0.0472884868850791</v>
       </c>
       <c r="J24">
-        <v>0.0311112284686574</v>
+        <v>0.03243148603849778</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N24">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O24">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P24">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q24">
-        <v>2.341029377111667</v>
+        <v>8.170371054733835</v>
       </c>
       <c r="R24">
-        <v>14.04617626267</v>
+        <v>49.02222632840301</v>
       </c>
       <c r="S24">
-        <v>0.01487942222413018</v>
+        <v>0.02684487406364661</v>
       </c>
       <c r="T24">
-        <v>0.01239470993980931</v>
+        <v>0.02088470905521366</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.5849825</v>
+        <v>0.5406085</v>
       </c>
       <c r="H25">
-        <v>1.169965</v>
+        <v>1.081217</v>
       </c>
       <c r="I25">
-        <v>0.04498586459554607</v>
+        <v>0.0472884868850791</v>
       </c>
       <c r="J25">
-        <v>0.0311112284686574</v>
+        <v>0.03243148603849778</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N25">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O25">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P25">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q25">
-        <v>0.20885045215</v>
+        <v>0.08717474245050001</v>
       </c>
       <c r="R25">
-        <v>1.2531027129</v>
+        <v>0.5230484547030001</v>
       </c>
       <c r="S25">
-        <v>0.001327439155451536</v>
+        <v>0.0002864245659025014</v>
       </c>
       <c r="T25">
-        <v>0.001105770307928005</v>
+        <v>0.0002228318788516988</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.798925</v>
+        <v>0.02556266666666667</v>
       </c>
       <c r="H26">
-        <v>2.396775</v>
+        <v>0.07668800000000001</v>
       </c>
       <c r="I26">
-        <v>0.06143830263639792</v>
+        <v>0.002236035555146313</v>
       </c>
       <c r="J26">
-        <v>0.06373405581617086</v>
+        <v>0.002300283663057756</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N26">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O26">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P26">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q26">
-        <v>4.434817095962501</v>
+        <v>0.220897521704</v>
       </c>
       <c r="R26">
-        <v>26.608902575775</v>
+        <v>1.325385130224</v>
       </c>
       <c r="S26">
-        <v>0.02818739341880086</v>
+        <v>0.0007257890873487024</v>
       </c>
       <c r="T26">
-        <v>0.02348038520062565</v>
+        <v>0.0005646476079116183</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.798925</v>
+        <v>0.02556266666666667</v>
       </c>
       <c r="H27">
-        <v>2.396775</v>
+        <v>0.07668800000000001</v>
       </c>
       <c r="I27">
-        <v>0.06143830263639792</v>
+        <v>0.002236035555146313</v>
       </c>
       <c r="J27">
-        <v>0.06373405581617086</v>
+        <v>0.002300283663057756</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>3.981621</v>
       </c>
       <c r="O27">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P27">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q27">
-        <v>1.060338852475</v>
+        <v>0.03392695013866667</v>
       </c>
       <c r="R27">
-        <v>9.543049672274998</v>
+        <v>0.305342551248</v>
       </c>
       <c r="S27">
-        <v>0.006739441051393789</v>
+        <v>0.0001114716452575843</v>
       </c>
       <c r="T27">
-        <v>0.008421034338248916</v>
+        <v>0.0001300836543463221</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.798925</v>
+        <v>0.02556266666666667</v>
       </c>
       <c r="H28">
-        <v>2.396775</v>
+        <v>0.07668800000000001</v>
       </c>
       <c r="I28">
-        <v>0.06143830263639792</v>
+        <v>0.002236035555146313</v>
       </c>
       <c r="J28">
-        <v>0.06373405581617086</v>
+        <v>0.002300283663057756</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N28">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O28">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P28">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q28">
-        <v>0.1999581447</v>
+        <v>0.01432003544888889</v>
       </c>
       <c r="R28">
-        <v>1.7996233023</v>
+        <v>0.12888031904</v>
       </c>
       <c r="S28">
-        <v>0.001270920258940047</v>
+        <v>4.705043940319558E-05</v>
       </c>
       <c r="T28">
-        <v>0.00158803423905562</v>
+        <v>5.490627757421964E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.798925</v>
+        <v>0.02556266666666667</v>
       </c>
       <c r="H29">
-        <v>2.396775</v>
+        <v>0.07668800000000001</v>
       </c>
       <c r="I29">
-        <v>0.06143830263639792</v>
+        <v>0.002236035555146313</v>
       </c>
       <c r="J29">
-        <v>0.06373405581617086</v>
+        <v>0.002300283663057756</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N29">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O29">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P29">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q29">
-        <v>0.488746363375</v>
+        <v>0.02094608741066667</v>
       </c>
       <c r="R29">
-        <v>2.93247818025</v>
+        <v>0.125676524464</v>
       </c>
       <c r="S29">
-        <v>0.003106438378034028</v>
+        <v>6.882124139756078E-05</v>
       </c>
       <c r="T29">
-        <v>0.002587694741209908</v>
+        <v>5.354138000420324E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
       </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.798925</v>
+        <v>0.02556266666666667</v>
       </c>
       <c r="H30">
-        <v>2.396775</v>
+        <v>0.07668800000000001</v>
       </c>
       <c r="I30">
-        <v>0.06143830263639792</v>
+        <v>0.002236035555146313</v>
       </c>
       <c r="J30">
-        <v>0.06373405581617086</v>
+        <v>0.002300283663057756</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N30">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O30">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P30">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q30">
-        <v>3.197201446383334</v>
+        <v>0.386335900776889</v>
       </c>
       <c r="R30">
-        <v>28.77481301745</v>
+        <v>3.477023106992001</v>
       </c>
       <c r="S30">
-        <v>0.02032119319879347</v>
+        <v>0.001269359559455029</v>
       </c>
       <c r="T30">
-        <v>0.02539164070377017</v>
+        <v>0.001481299839002</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.798925</v>
+        <v>0.02556266666666667</v>
       </c>
       <c r="H31">
-        <v>2.396775</v>
+        <v>0.07668800000000001</v>
       </c>
       <c r="I31">
-        <v>0.06143830263639792</v>
+        <v>0.002236035555146313</v>
       </c>
       <c r="J31">
-        <v>0.06373405581617086</v>
+        <v>0.002300283663057756</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N31">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O31">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P31">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q31">
-        <v>0.2852322035000001</v>
+        <v>0.004122056688000001</v>
       </c>
       <c r="R31">
-        <v>2.5670898315</v>
+        <v>0.03709851019200001</v>
       </c>
       <c r="S31">
-        <v>0.001812916330435728</v>
+        <v>1.354358228424145E-05</v>
       </c>
       <c r="T31">
-        <v>0.002265266593260606</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.2880766666666667</v>
-      </c>
-      <c r="H32">
-        <v>0.8642300000000001</v>
-      </c>
-      <c r="I32">
-        <v>0.02215344547880138</v>
-      </c>
-      <c r="J32">
-        <v>0.02298124899417315</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>5.550980500000001</v>
-      </c>
-      <c r="N32">
-        <v>11.101961</v>
-      </c>
-      <c r="O32">
-        <v>0.4587918645086687</v>
-      </c>
-      <c r="P32">
-        <v>0.3684119094562331</v>
-      </c>
-      <c r="Q32">
-        <v>1.599107959171667</v>
-      </c>
-      <c r="R32">
-        <v>9.594647755030001</v>
-      </c>
-      <c r="S32">
-        <v>0.01016382055651042</v>
-      </c>
-      <c r="T32">
-        <v>0.008466565823632467</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.2880766666666667</v>
-      </c>
-      <c r="H33">
-        <v>0.8642300000000001</v>
-      </c>
-      <c r="I33">
-        <v>0.02215344547880138</v>
-      </c>
-      <c r="J33">
-        <v>0.02298124899417315</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>1.327207</v>
-      </c>
-      <c r="N33">
-        <v>3.981621</v>
-      </c>
-      <c r="O33">
-        <v>0.1096944538210784</v>
-      </c>
-      <c r="P33">
-        <v>0.1321277020646205</v>
-      </c>
-      <c r="Q33">
-        <v>0.3823373685366667</v>
-      </c>
-      <c r="R33">
-        <v>3.44103631683</v>
-      </c>
-      <c r="S33">
-        <v>0.002430110102052155</v>
-      </c>
-      <c r="T33">
-        <v>0.003036459620174969</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.2880766666666667</v>
-      </c>
-      <c r="H34">
-        <v>0.8642300000000001</v>
-      </c>
-      <c r="I34">
-        <v>0.02215344547880138</v>
-      </c>
-      <c r="J34">
-        <v>0.02298124899417315</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>0.250284</v>
-      </c>
-      <c r="N34">
-        <v>0.750852</v>
-      </c>
-      <c r="O34">
-        <v>0.02068612257180288</v>
-      </c>
-      <c r="P34">
-        <v>0.02491657276034671</v>
-      </c>
-      <c r="Q34">
-        <v>0.07210098044000002</v>
-      </c>
-      <c r="R34">
-        <v>0.64890882396</v>
-      </c>
-      <c r="S34">
-        <v>0.0004582688885622377</v>
-      </c>
-      <c r="T34">
-        <v>0.00057261396268696</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.2880766666666667</v>
-      </c>
-      <c r="H35">
-        <v>0.8642300000000001</v>
-      </c>
-      <c r="I35">
-        <v>0.02215344547880138</v>
-      </c>
-      <c r="J35">
-        <v>0.02298124899417315</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>0.611755</v>
-      </c>
-      <c r="N35">
-        <v>1.22351</v>
-      </c>
-      <c r="O35">
-        <v>0.05056191731758031</v>
-      </c>
-      <c r="P35">
-        <v>0.04060144467619692</v>
-      </c>
-      <c r="Q35">
-        <v>0.1762323412166667</v>
-      </c>
-      <c r="R35">
-        <v>1.0573940473</v>
-      </c>
-      <c r="S35">
-        <v>0.001120120678598679</v>
-      </c>
-      <c r="T35">
-        <v>0.0009330719096268271</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.2880766666666667</v>
-      </c>
-      <c r="H36">
-        <v>0.8642300000000001</v>
-      </c>
-      <c r="I36">
-        <v>0.02215344547880138</v>
-      </c>
-      <c r="J36">
-        <v>0.02298124899417315</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>4.001879333333334</v>
-      </c>
-      <c r="N36">
-        <v>12.005638</v>
-      </c>
-      <c r="O36">
-        <v>0.3307577248521605</v>
-      </c>
-      <c r="P36">
-        <v>0.3983998880756573</v>
-      </c>
-      <c r="Q36">
-        <v>1.152848058748889</v>
-      </c>
-      <c r="R36">
-        <v>10.37563252874</v>
-      </c>
-      <c r="S36">
-        <v>0.007327423224204726</v>
-      </c>
-      <c r="T36">
-        <v>0.009155727027117394</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.2880766666666667</v>
-      </c>
-      <c r="H37">
-        <v>0.8642300000000001</v>
-      </c>
-      <c r="I37">
-        <v>0.02215344547880138</v>
-      </c>
-      <c r="J37">
-        <v>0.02298124899417315</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>0.3570200000000001</v>
-      </c>
-      <c r="N37">
-        <v>1.07106</v>
-      </c>
-      <c r="O37">
-        <v>0.02950791692870925</v>
-      </c>
-      <c r="P37">
-        <v>0.03554248296694549</v>
-      </c>
-      <c r="Q37">
-        <v>0.1028491315333334</v>
-      </c>
-      <c r="R37">
-        <v>0.9256421838000002</v>
-      </c>
-      <c r="S37">
-        <v>0.0006537020288731606</v>
-      </c>
-      <c r="T37">
-        <v>0.0008168106509345324</v>
+        <v>1.580490421939267E-05</v>
       </c>
     </row>
   </sheetData>
